--- a/イベント情報.xlsx
+++ b/イベント情報.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YFurugen\Documents\MyApps\Reveal-Samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{977E6B8C-9A83-4C96-9C6B-286974D77529}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D80DB523-1DA2-466C-AC82-DB0170227071}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{2DFF52B4-869B-4477-83CD-4272848347EB}"/>
+    <workbookView xWindow="3720" yWindow="4545" windowWidth="19785" windowHeight="9960" xr2:uid="{2DFF52B4-869B-4477-83CD-4272848347EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Doorkeeper-トピック情報" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1313" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1313" uniqueCount="426">
   <si>
     <t>データ分析</t>
     <rPh sb="3" eb="5">
@@ -1356,6 +1356,10 @@
   </si>
   <si>
     <t>機械学習　浜名湖</t>
+  </si>
+  <si>
+    <t>4人</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -2283,7 +2287,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30B831E4-B60B-4B21-A5CC-95AB8929B494}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
@@ -2377,8 +2383,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AF9B1E8-63A6-47BD-BD38-56FF014B515E}">
   <dimension ref="A1:F209"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2557,7 +2563,7 @@
         <v>15</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>114</v>
+        <v>425</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>163</v>
